--- a/data/trans_orig/P14B23_2016_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P14B23_2016_2023-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>33026</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22767</v>
+        <v>22948</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45234</v>
+        <v>45596</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0292785087521626</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02018363304079593</v>
+        <v>0.0203442210616105</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04010146367816946</v>
+        <v>0.040422413385044</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>80</v>
@@ -763,19 +763,19 @@
         <v>89910</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>71743</v>
+        <v>73074</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>111944</v>
+        <v>109542</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07138208694508423</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05695841987957181</v>
+        <v>0.05801574245849785</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0888754098779193</v>
+        <v>0.08696828689920394</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -784,19 +784,19 @@
         <v>122936</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>99695</v>
+        <v>102531</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>145502</v>
+        <v>146817</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05149033161191333</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04175585561003216</v>
+        <v>0.04294397485898706</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06094181672352986</v>
+        <v>0.0614924874686495</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>1094971</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1082763</v>
+        <v>1082401</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1105230</v>
+        <v>1105049</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9707214912478374</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9598985363218303</v>
+        <v>0.9595775866149565</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9798163669592039</v>
+        <v>0.9796557789383897</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1108</v>
@@ -834,19 +834,19 @@
         <v>1169651</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1147617</v>
+        <v>1150019</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1187818</v>
+        <v>1186487</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9286179130549158</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9111245901220818</v>
+        <v>0.9130317131007967</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9430415801204287</v>
+        <v>0.9419842575415024</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2142</v>
@@ -855,19 +855,19 @@
         <v>2264622</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2242056</v>
+        <v>2240741</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2287863</v>
+        <v>2285027</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9485096683880867</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9390581832764702</v>
+        <v>0.9385075125313506</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9582441443899681</v>
+        <v>0.957056025141013</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>6576</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2659</v>
+        <v>2598</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13412</v>
+        <v>12705</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007235362153499108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002925400019298554</v>
+        <v>0.002858859821367154</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0147571095337928</v>
+        <v>0.01397918293173539</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -980,19 +980,19 @@
         <v>34183</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23719</v>
+        <v>24482</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46371</v>
+        <v>47703</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03399624605048625</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02358943647120633</v>
+        <v>0.02434801491933492</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04611774290266872</v>
+        <v>0.04744197486961343</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -1001,19 +1001,19 @@
         <v>40759</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29590</v>
+        <v>29001</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55973</v>
+        <v>54955</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02129151847237961</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01545729523067169</v>
+        <v>0.01514941464292682</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02923882032162556</v>
+        <v>0.02870702748344902</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>902249</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>895413</v>
+        <v>896120</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>906166</v>
+        <v>906227</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9927646378465009</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9852428904662073</v>
+        <v>0.9860208170682646</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9970745999807015</v>
+        <v>0.9971411401786329</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>918</v>
@@ -1051,19 +1051,19 @@
         <v>971315</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>959127</v>
+        <v>957795</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>981779</v>
+        <v>981016</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9660037539495138</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9538822570973313</v>
+        <v>0.9525580251303867</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9764105635287937</v>
+        <v>0.9756519850806651</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1792</v>
@@ -1072,19 +1072,19 @@
         <v>1873564</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1858350</v>
+        <v>1859368</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1884733</v>
+        <v>1885322</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9787084815276204</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9707611796783745</v>
+        <v>0.971292972516551</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9845427047693284</v>
+        <v>0.9848505853570733</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>4840</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1801</v>
+        <v>1888</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10484</v>
+        <v>11844</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0058760821731899</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002185714584864166</v>
+        <v>0.002292016743490719</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01272677779595614</v>
+        <v>0.01437753320394078</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1197,19 +1197,19 @@
         <v>21164</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13399</v>
+        <v>12296</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32828</v>
+        <v>31482</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02744750225011173</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01737768142707709</v>
+        <v>0.01594658447903052</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04257566662971395</v>
+        <v>0.04082980779243066</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -1218,19 +1218,19 @@
         <v>26004</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16557</v>
+        <v>16948</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38198</v>
+        <v>37059</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01630537953071673</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01038145754409567</v>
+        <v>0.01062670451053889</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02395159759214781</v>
+        <v>0.02323692325428796</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>818919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>813275</v>
+        <v>811915</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>821958</v>
+        <v>821871</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9941239178268101</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9872732222040438</v>
+        <v>0.9856224667960591</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9978142854151357</v>
+        <v>0.9977079832565092</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>709</v>
@@ -1268,19 +1268,19 @@
         <v>749895</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>738231</v>
+        <v>739577</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>757660</v>
+        <v>758763</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9725524977498883</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9574243333702864</v>
+        <v>0.9591701922075695</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.982622318572923</v>
+        <v>0.9840534155209695</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1491</v>
@@ -1289,19 +1289,19 @@
         <v>1568814</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1556620</v>
+        <v>1557759</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1578261</v>
+        <v>1577870</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9836946204692832</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9760484024078522</v>
+        <v>0.9767630767457121</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9896185424559043</v>
+        <v>0.9893732954894611</v>
       </c>
     </row>
     <row r="12">
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7866</v>
+        <v>7322</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004072661571091699</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01552304772660628</v>
+        <v>0.01445085838414358</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1414,19 +1414,19 @@
         <v>8090</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3300</v>
+        <v>3806</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16354</v>
+        <v>16306</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01652057661262865</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006737954432832574</v>
+        <v>0.007771498940619896</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03339584682546546</v>
+        <v>0.03329798742459197</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1435,19 +1435,19 @@
         <v>10154</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4915</v>
+        <v>5109</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18321</v>
+        <v>19016</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01019040844485335</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004932330022991256</v>
+        <v>0.005127055344756745</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01838705258475289</v>
+        <v>0.01908484668749042</v>
       </c>
     </row>
     <row r="14">
@@ -1464,7 +1464,7 @@
         <v>504637</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498835</v>
+        <v>499379</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>506701</v>
@@ -1473,7 +1473,7 @@
         <v>0.9959273384289083</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9844769522733939</v>
+        <v>0.9855491416158565</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1485,19 +1485,19 @@
         <v>481608</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>473344</v>
+        <v>473392</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>486398</v>
+        <v>485892</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9834794233873714</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9666041531745344</v>
+        <v>0.9667020125754082</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9932620455671675</v>
+        <v>0.9922285010593802</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>917</v>
@@ -1506,19 +1506,19 @@
         <v>986244</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>978077</v>
+        <v>977382</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>991483</v>
+        <v>991289</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9898095915551467</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9816129474152471</v>
+        <v>0.9809151533125096</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9950676699770088</v>
+        <v>0.9948729446552435</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>46506</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33987</v>
+        <v>34313</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60788</v>
+        <v>61233</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0138110939088403</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01009319946380755</v>
+        <v>0.01019011807918532</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01805255774216059</v>
+        <v>0.01818469826710199</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>138</v>
@@ -1631,19 +1631,19 @@
         <v>153347</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>130616</v>
+        <v>130811</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>181964</v>
+        <v>181976</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0434926247140666</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03704551170013049</v>
+        <v>0.03710103080579689</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05160893473285481</v>
+        <v>0.05161255947126277</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>184</v>
@@ -1652,19 +1652,19 @@
         <v>199853</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>172582</v>
+        <v>173627</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>232032</v>
+        <v>230214</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0289931795919595</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0250369850042342</v>
+        <v>0.02518848669579951</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03366147358431479</v>
+        <v>0.0333976871594951</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3320776</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3306494</v>
+        <v>3306049</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3333295</v>
+        <v>3332969</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9861889060911597</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9819474422578397</v>
+        <v>0.9818153017328979</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9899068005361925</v>
+        <v>0.9898098819208145</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3183</v>
@@ -1702,19 +1702,19 @@
         <v>3372469</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3343852</v>
+        <v>3343840</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3395200</v>
+        <v>3395005</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9565073752859334</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9483910652671452</v>
+        <v>0.9483874405287372</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9629544882998695</v>
+        <v>0.9628989691942031</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6342</v>
@@ -1723,19 +1723,19 @@
         <v>6693245</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6661066</v>
+        <v>6662884</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6720516</v>
+        <v>6719471</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9710068204080405</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9663385264156853</v>
+        <v>0.9666023128405049</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9749630149957659</v>
+        <v>0.9748115133042006</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>40614</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30356</v>
+        <v>29745</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55009</v>
+        <v>53956</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08201855444283962</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06130129539240802</v>
+        <v>0.06006843781709723</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1110866868462469</v>
+        <v>0.1089601498000376</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>104</v>
@@ -2088,19 +2088,19 @@
         <v>69394</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56511</v>
+        <v>56805</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84059</v>
+        <v>83591</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1114068269300418</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09072330546578519</v>
+        <v>0.09119597888562048</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1349498746600291</v>
+        <v>0.1341984602401678</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>146</v>
@@ -2109,19 +2109,19 @@
         <v>110009</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>91440</v>
+        <v>93577</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>130679</v>
+        <v>128414</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09839103911160151</v>
+        <v>0.09839103911160149</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08178345928337334</v>
+        <v>0.08369425541491629</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1168782748768578</v>
+        <v>0.1148525971366932</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>454572</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>440177</v>
+        <v>441230</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>464830</v>
+        <v>465441</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9179814455571603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8889133131537528</v>
+        <v>0.8910398501999623</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9386987046075919</v>
+        <v>0.9399315621829027</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>756</v>
@@ -2159,19 +2159,19 @@
         <v>553498</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>538833</v>
+        <v>539301</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>566381</v>
+        <v>566087</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.888593173069958</v>
+        <v>0.8885931730699582</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8650501253399707</v>
+        <v>0.865801539759833</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9092766945342144</v>
+        <v>0.9088040211143796</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1165</v>
@@ -2180,19 +2180,19 @@
         <v>1008069</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>987399</v>
+        <v>989664</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1026638</v>
+        <v>1024501</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9016089608883984</v>
+        <v>0.9016089608883985</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8831217251231422</v>
+        <v>0.8851474028633067</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9182165407166271</v>
+        <v>0.9163057445850837</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>25896</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17289</v>
+        <v>17227</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36493</v>
+        <v>37378</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02697084709225755</v>
+        <v>0.02697084709225754</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01800644130525539</v>
+        <v>0.01794197975142678</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03800821653197841</v>
+        <v>0.03892969763285232</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -2305,19 +2305,19 @@
         <v>75624</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61640</v>
+        <v>62785</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90291</v>
+        <v>89531</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06790445350771501</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05534816376818417</v>
+        <v>0.05637586258250241</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0810746830322603</v>
+        <v>0.08039168958461676</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>145</v>
@@ -2326,19 +2326,19 @@
         <v>101520</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>85352</v>
+        <v>84086</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118876</v>
+        <v>120663</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04895301001144644</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04115670369193115</v>
+        <v>0.0405465893201444</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05732208701670149</v>
+        <v>0.05818399951567791</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>934241</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>923644</v>
+        <v>922759</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>942848</v>
+        <v>942910</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9730291529077426</v>
+        <v>0.9730291529077425</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9619917834680227</v>
+        <v>0.961070302367148</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9819935586947448</v>
+        <v>0.9820580202485736</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1488</v>
@@ -2376,19 +2376,19 @@
         <v>1038058</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1023391</v>
+        <v>1024151</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1052042</v>
+        <v>1050897</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9320955464922848</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9189253169677397</v>
+        <v>0.9196083104153833</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.944651836231816</v>
+        <v>0.9436241374174975</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2369</v>
@@ -2397,19 +2397,19 @@
         <v>1972299</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1954943</v>
+        <v>1953156</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1988467</v>
+        <v>1989733</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9510469899885535</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9426779129832984</v>
+        <v>0.9418160004843219</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9588432963080689</v>
+        <v>0.9594534106798557</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>18815</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11968</v>
+        <v>11664</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29383</v>
+        <v>28836</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01799184917601712</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0114443675269673</v>
+        <v>0.01115404720068248</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02809789000491235</v>
+        <v>0.02757480059782277</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -2522,19 +2522,19 @@
         <v>48523</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38889</v>
+        <v>37983</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61817</v>
+        <v>60781</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04634550790638175</v>
+        <v>0.04634550790638174</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03714331165767292</v>
+        <v>0.03627787191163487</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05904282573992402</v>
+        <v>0.05805330678847725</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>99</v>
@@ -2543,19 +2543,19 @@
         <v>67338</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54582</v>
+        <v>54491</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83417</v>
+        <v>83877</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03217715638415843</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02608167088273055</v>
+        <v>0.02603803618908858</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03986040805708754</v>
+        <v>0.04008017902304775</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>1026924</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1016356</v>
+        <v>1016903</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1033771</v>
+        <v>1034075</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.982008150823983</v>
+        <v>0.9820081508239827</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9719021099950875</v>
+        <v>0.9724251994021771</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9885556324730327</v>
+        <v>0.9888459527993178</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1436</v>
@@ -2593,19 +2593,19 @@
         <v>998468</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>985174</v>
+        <v>986210</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1008102</v>
+        <v>1009008</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9536544920936182</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9409571742600761</v>
+        <v>0.9419466932115237</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9628566883423272</v>
+        <v>0.9637221280883658</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2444</v>
@@ -2614,19 +2614,19 @@
         <v>2025392</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2009313</v>
+        <v>2008853</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2038148</v>
+        <v>2038239</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9678228436158416</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9601395919429119</v>
+        <v>0.9599198209769522</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9739183291172692</v>
+        <v>0.9739619638109115</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>24816</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15855</v>
+        <v>16264</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40372</v>
+        <v>39877</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02542851731840241</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01624641273099196</v>
+        <v>0.01666488235821911</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04136790422453386</v>
+        <v>0.04086052532513614</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -2739,19 +2739,19 @@
         <v>26221</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18900</v>
+        <v>19166</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35251</v>
+        <v>35178</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02887010411110668</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02080870887374009</v>
+        <v>0.02110264659378055</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0388115099149326</v>
+        <v>0.03873178224787435</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -2760,19 +2760,19 @@
         <v>51038</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38784</v>
+        <v>38754</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68041</v>
+        <v>66598</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0270875009777152</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02058422544460663</v>
+        <v>0.02056795185129649</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03611173814453759</v>
+        <v>0.03534565348540769</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>951113</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>935557</v>
+        <v>936052</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>960074</v>
+        <v>959665</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9745714826815977</v>
+        <v>0.9745714826815975</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9586320957754665</v>
+        <v>0.9591394746748642</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9837535872690081</v>
+        <v>0.9833351176417808</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1278</v>
@@ -2810,19 +2810,19 @@
         <v>882030</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>873000</v>
+        <v>873073</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>889351</v>
+        <v>889085</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9711298958888933</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9611884900850676</v>
+        <v>0.9612682177521257</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.97919129112626</v>
+        <v>0.9788973534062195</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2202</v>
@@ -2831,19 +2831,19 @@
         <v>1833142</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1816139</v>
+        <v>1817582</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1845396</v>
+        <v>1845426</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9729124990222848</v>
+        <v>0.9729124990222847</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9638882618554625</v>
+        <v>0.9646543465145924</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9794157745553934</v>
+        <v>0.9794320481487037</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>110141</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>90677</v>
+        <v>90287</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>133333</v>
+        <v>134096</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03167720601391921</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02607907920483544</v>
+        <v>0.02596698604341356</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03834719242743687</v>
+        <v>0.03856675319338407</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>341</v>
@@ -2956,19 +2956,19 @@
         <v>219763</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>196343</v>
+        <v>197945</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>246137</v>
+        <v>245120</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05952707951513855</v>
+        <v>0.05952707951513857</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05318322283862131</v>
+        <v>0.05361726175612631</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0666708981884498</v>
+        <v>0.06639563129197508</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>455</v>
@@ -2977,19 +2977,19 @@
         <v>329904</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>298411</v>
+        <v>299264</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>361780</v>
+        <v>363853</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0460194242369486</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0416263822968165</v>
+        <v>0.04174524668715852</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05046591460566831</v>
+        <v>0.05075503828562186</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3366850</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3343658</v>
+        <v>3342895</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3386314</v>
+        <v>3386704</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9683227939860809</v>
+        <v>0.9683227939860807</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9616528075725631</v>
+        <v>0.9614332468066159</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9739209207951645</v>
+        <v>0.9740330139565866</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4958</v>
@@ -3027,19 +3027,19 @@
         <v>3472052</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3445678</v>
+        <v>3446695</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3495472</v>
+        <v>3493870</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9404729204848613</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9333291018115503</v>
+        <v>0.933604368708025</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9468167771613787</v>
+        <v>0.9463827382438738</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8180</v>
@@ -3048,19 +3048,19 @@
         <v>6838902</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6807026</v>
+        <v>6804953</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6870395</v>
+        <v>6869542</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9539805757630514</v>
+        <v>0.9539805757630513</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9495340853943313</v>
+        <v>0.949244961714378</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9583736177031831</v>
+        <v>0.9582547533128413</v>
       </c>
     </row>
     <row r="18">
